--- a/Assets/EasyExcel/Example/ExcelFiles/Level.xlsx
+++ b/Assets/EasyExcel/Example/ExcelFiles/Level.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lk\gitee\EasyExcel\Assets\EasyExcel\Example\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Level" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -94,14 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,19 +118,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -141,30 +140,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -174,17 +166,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -198,34 +183,34 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,6 +220,11 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -449,32 +439,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -483,79 +458,73 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,7 +542,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,87 +551,158 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="44">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="24"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="33"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="43"/>
+    <cellStyle name="标题" xfId="2"/>
+    <cellStyle name="标题 1" xfId="14"/>
+    <cellStyle name="标题 2" xfId="15"/>
+    <cellStyle name="标题 3" xfId="16"/>
+    <cellStyle name="标题 4" xfId="11"/>
+    <cellStyle name="差" xfId="6"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="常规 5 2" xfId="7"/>
-    <cellStyle name="货币[0]" xfId="8" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="输入" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="注释" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
-    <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20"/>
-    <cellStyle name="标题 1" xfId="21"/>
-    <cellStyle name="标题 2" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="计算" xfId="27"/>
-    <cellStyle name="检查单元格" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="强调文字颜色 2" xfId="30"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31"/>
-    <cellStyle name="汇总" xfId="32"/>
-    <cellStyle name="好" xfId="33"/>
-    <cellStyle name="适中" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40"/>
-    <cellStyle name="强调文字颜色 3" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46"/>
-    <cellStyle name="强调文字颜色 6" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48"/>
-    <cellStyle name="常规 2 3" xfId="49"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50"/>
+    <cellStyle name="常规 2 3" xfId="42"/>
+    <cellStyle name="常规 5 2" xfId="3"/>
+    <cellStyle name="好" xfId="26"/>
+    <cellStyle name="汇总" xfId="25"/>
+    <cellStyle name="计算" xfId="20"/>
+    <cellStyle name="检查单元格" xfId="21"/>
+    <cellStyle name="解释性文本" xfId="13"/>
+    <cellStyle name="警告文本" xfId="10"/>
+    <cellStyle name="链接单元格" xfId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="强调文字颜色 3" xfId="34"/>
+    <cellStyle name="强调文字颜色 4" xfId="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="37"/>
+    <cellStyle name="强调文字颜色 6" xfId="40"/>
+    <cellStyle name="适中" xfId="27"/>
+    <cellStyle name="输出" xfId="18"/>
+    <cellStyle name="输入" xfId="5"/>
+    <cellStyle name="注释" xfId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -674,7 +714,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -961,6 +1001,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -993,15 +1034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
@@ -1012,7 +1052,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
@@ -1081,7 +1121,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
@@ -1104,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1003</v>
       </c>
@@ -1127,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1004</v>
       </c>
@@ -1150,7 +1190,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1005</v>
       </c>
@@ -1173,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2001</v>
       </c>
@@ -1196,7 +1236,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
@@ -1219,7 +1259,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2003</v>
       </c>
@@ -1242,7 +1282,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2004</v>
       </c>
@@ -1265,7 +1305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2005</v>
       </c>
@@ -1288,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2006</v>
       </c>
@@ -1311,7 +1351,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2007</v>
       </c>
@@ -1334,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2008</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -1380,7 +1420,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2010</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2013</v>
       </c>
@@ -1427,8 +1467,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>